--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -359,7 +359,7 @@
     <t>estremiDocumento</t>
   </si>
   <si>
-    <t>Dati della trascrizione</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2016,7 +2016,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>76</v>
@@ -2025,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -2036,7 +2036,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>76</v>
@@ -2045,7 +2045,7 @@
         <v>32</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -2056,7 +2056,7 @@
         <v>33</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>76</v>
@@ -2065,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -2076,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>76</v>
@@ -2096,7 +2096,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>76</v>
@@ -2105,7 +2105,7 @@
         <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -2196,7 +2196,7 @@
         <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>76</v>
@@ -2216,7 +2216,7 @@
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>76</v>
@@ -2225,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -2236,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>76</v>
@@ -2256,7 +2256,7 @@
         <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>76</v>
@@ -2265,7 +2265,7 @@
         <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -2376,7 +2376,7 @@
         <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>76</v>
@@ -2385,7 +2385,7 @@
         <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -2396,7 +2396,7 @@
         <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>76</v>
@@ -2405,7 +2405,7 @@
         <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -2416,7 +2416,7 @@
         <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>76</v>
@@ -2425,44 +2425,44 @@
         <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2470,19 +2470,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2490,19 +2490,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2510,19 +2510,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2530,19 +2530,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2550,19 +2550,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2570,39 +2570,39 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2610,39 +2610,39 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2650,19 +2650,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -2670,19 +2670,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -2690,19 +2690,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -2710,19 +2710,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -2730,39 +2730,39 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -2770,59 +2770,59 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -2830,19 +2830,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -2850,19 +2850,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -2870,461 +2870,21 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F143" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
   </si>
   <si>
     <t>cognome</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
   </si>
   <si>
     <t>Nome</t>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,6 +475,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,85 +497,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -587,2305 +612,2653 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.1</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.1</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -613,2652 +616,2652 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -110,7 +110,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRichiedente,!=,4}</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
   </si>
   <si>
     <t>Nome</t>
@@ -478,7 +478,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3157,7 +3157,7 @@
         <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>121</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -59,7 +59,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192.1</t>
+    <t>192.9</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -728,7 +728,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>32</v>
@@ -751,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>32</v>
@@ -774,7 +774,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>32</v>
@@ -797,7 +797,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>32</v>
@@ -843,7 +843,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>32</v>
@@ -889,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -935,7 +935,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>32</v>
@@ -981,7 +981,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1027,7 +1027,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1119,7 +1119,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>32</v>
@@ -1142,7 +1142,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>32</v>
@@ -2246,7 +2246,7 @@
         <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2453,7 +2453,7 @@
         <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2591,7 +2591,7 @@
         <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>21</v>
@@ -2637,7 +2637,7 @@
         <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -2660,7 +2660,7 @@
         <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -742,7 +742,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -751,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>32</v>
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -774,7 +774,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>32</v>
@@ -788,7 +788,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -797,7 +797,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>32</v>
@@ -811,7 +811,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -843,7 +843,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>32</v>
@@ -949,7 +949,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -972,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -981,7 +981,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -995,7 +995,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1027,7 +1027,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -245,10 +245,16 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -478,7 +484,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -719,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -728,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>32</v>
@@ -949,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -972,7 +978,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -995,7 +1001,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1018,7 +1024,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1073,7 +1079,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
@@ -1119,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>32</v>
@@ -1142,7 +1148,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>32</v>
@@ -1225,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>76</v>
@@ -1237,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -1260,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -1283,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -1306,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -1329,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -1352,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -1375,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -1395,10 +1401,10 @@
         <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -1421,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -1441,10 +1447,10 @@
         <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -1455,7 +1461,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -1467,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -1478,7 +1484,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>76</v>
@@ -1490,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -1501,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>76</v>
@@ -1513,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -1524,7 +1530,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>76</v>
@@ -1536,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -1559,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -1582,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -1605,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -1628,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -1651,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -1674,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -1685,7 +1691,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>76</v>
@@ -1697,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -1708,7 +1714,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>76</v>
@@ -1720,21 +1726,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>31</v>
@@ -1743,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
@@ -1757,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>34</v>
@@ -1766,12 +1772,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>35</v>
@@ -1780,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>36</v>
@@ -1789,12 +1795,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>37</v>
@@ -1803,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>38</v>
@@ -1812,12 +1818,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -1826,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>40</v>
@@ -1835,12 +1841,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
@@ -1849,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>42</v>
@@ -1858,12 +1864,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>43</v>
@@ -1872,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>44</v>
@@ -1881,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
@@ -1895,21 +1901,21 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>47</v>
@@ -1918,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>48</v>
@@ -1927,12 +1933,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -1941,30 +1947,30 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>52</v>
@@ -1973,21 +1979,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>54</v>
@@ -1996,21 +2002,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>56</v>
@@ -2019,21 +2025,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>58</v>
@@ -2042,12 +2048,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -2056,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>60</v>
@@ -2065,12 +2071,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -2079,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>62</v>
@@ -2088,12 +2094,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>63</v>
@@ -2102,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>64</v>
@@ -2111,12 +2117,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>65</v>
@@ -2125,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>66</v>
@@ -2134,12 +2140,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>67</v>
@@ -2148,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>68</v>
@@ -2157,12 +2163,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>69</v>
@@ -2171,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>70</v>
@@ -2180,21 +2186,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>72</v>
@@ -2203,21 +2209,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>74</v>
@@ -2226,21 +2232,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>31</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -2263,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>34</v>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>35</v>
@@ -2286,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -2309,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>38</v>
@@ -2323,7 +2329,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>39</v>
@@ -2332,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>41</v>
@@ -2355,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>42</v>
@@ -2369,7 +2375,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>43</v>
@@ -2378,7 +2384,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -2392,7 +2398,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>45</v>
@@ -2401,13 +2407,13 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2415,7 +2421,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>47</v>
@@ -2424,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>48</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>49</v>
@@ -2447,13 +2453,13 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2461,16 +2467,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>52</v>
@@ -2484,16 +2490,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>54</v>
@@ -2507,16 +2513,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>56</v>
@@ -2530,16 +2536,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>58</v>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>59</v>
@@ -2562,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>60</v>
@@ -2576,7 +2582,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>61</v>
@@ -2585,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>62</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>63</v>
@@ -2608,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>64</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>65</v>
@@ -2631,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>66</v>
@@ -2645,7 +2651,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>67</v>
@@ -2654,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>68</v>
@@ -2668,7 +2674,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>69</v>
@@ -2677,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>70</v>
@@ -2691,16 +2697,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>72</v>
@@ -2714,16 +2720,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>74</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,16 +2881,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>20</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,16 +2927,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>23</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -2726,7 +2726,7 @@
         <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>82</v>
@@ -3140,7 +3140,7 @@
         <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>109</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,22 +239,16 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -484,7 +478,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1243,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1289,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -1312,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1335,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1358,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -1381,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1404,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1427,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1450,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1473,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1496,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -1519,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1542,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1565,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -1588,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1611,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1634,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1680,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -1703,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1726,12 +1720,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -1740,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>31</v>
@@ -1749,12 +1743,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
@@ -1763,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>34</v>
@@ -1772,12 +1766,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>35</v>
@@ -1786,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>36</v>
@@ -1795,12 +1789,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>37</v>
@@ -1809,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>38</v>
@@ -1818,12 +1812,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -1832,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>40</v>
@@ -1841,12 +1835,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
@@ -1855,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>42</v>
@@ -1864,12 +1858,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>43</v>
@@ -1878,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>44</v>
@@ -1887,12 +1881,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
@@ -1901,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>46</v>
@@ -1910,12 +1904,12 @@
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>47</v>
@@ -1924,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>48</v>
@@ -1933,12 +1927,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -1947,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>50</v>
@@ -1956,12 +1950,12 @@
         <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>51</v>
@@ -1970,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>52</v>
@@ -1979,12 +1973,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>53</v>
@@ -1993,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>54</v>
@@ -2002,12 +1996,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -2016,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>56</v>
@@ -2025,12 +2019,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>57</v>
@@ -2039,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>58</v>
@@ -2048,12 +2042,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -2062,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>60</v>
@@ -2071,12 +2065,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -2085,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>62</v>
@@ -2094,12 +2088,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>63</v>
@@ -2108,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>64</v>
@@ -2117,12 +2111,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>65</v>
@@ -2131,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>66</v>
@@ -2140,12 +2134,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>67</v>
@@ -2154,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>68</v>
@@ -2163,12 +2157,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>69</v>
@@ -2177,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>70</v>
@@ -2186,12 +2180,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>71</v>
@@ -2200,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>72</v>
@@ -2209,12 +2203,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -2223,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>74</v>
@@ -2232,12 +2226,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
@@ -2246,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>31</v>
@@ -2260,7 +2254,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -2269,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>34</v>
@@ -2283,7 +2277,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>35</v>
@@ -2292,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
@@ -2306,7 +2300,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>37</v>
@@ -2315,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>38</v>
@@ -2329,7 +2323,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>39</v>
@@ -2338,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
@@ -2352,7 +2346,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>41</v>
@@ -2361,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>42</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>43</v>
@@ -2384,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
@@ -2398,7 +2392,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>45</v>
@@ -2407,7 +2401,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>46</v>
@@ -2421,7 +2415,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>47</v>
@@ -2430,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>48</v>
@@ -2444,7 +2438,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>49</v>
@@ -2453,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>50</v>
@@ -2467,7 +2461,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>51</v>
@@ -2476,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>52</v>
@@ -2490,7 +2484,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>53</v>
@@ -2499,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>54</v>
@@ -2513,7 +2507,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>55</v>
@@ -2522,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>56</v>
@@ -2536,7 +2530,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>57</v>
@@ -2545,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>58</v>
@@ -2559,7 +2553,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>59</v>
@@ -2568,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>60</v>
@@ -2582,7 +2576,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>61</v>
@@ -2591,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>62</v>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>63</v>
@@ -2614,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>64</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>65</v>
@@ -2637,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>66</v>
@@ -2651,7 +2645,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>67</v>
@@ -2660,7 +2654,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>68</v>
@@ -2674,7 +2668,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>69</v>
@@ -2683,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>70</v>
@@ -2697,7 +2691,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>71</v>
@@ -2706,7 +2700,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>72</v>
@@ -2720,7 +2714,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>73</v>
@@ -2729,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>74</v>
@@ -2743,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2783,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2806,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2829,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2852,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,16 +2875,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>20</v>
@@ -2904,19 +2898,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,16 +2921,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>23</v>
@@ -2950,19 +2944,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2967,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,19 +2990,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3013,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3036,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3059,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3082,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3105,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3128,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3151,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3174,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3197,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3220,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3243,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -311,24 +317,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -351,6 +357,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -466,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,7 +967,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>32</v>
@@ -1156,7 +1165,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1219,42 +1228,42 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1265,19 +1274,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1288,19 +1297,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1311,19 +1320,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1334,19 +1343,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1357,19 +1366,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1380,22 +1389,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1403,22 +1412,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1426,22 +1435,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1449,22 +1458,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1472,22 +1481,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1495,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1527,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1550,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1573,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1596,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1619,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1665,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,16 +1737,16 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,16 +1760,16 @@
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,22 +1895,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>21</v>
@@ -1909,19 +1918,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1941,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>15</v>
@@ -1955,19 +1964,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,22 +1987,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2001,22 +2010,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2024,19 +2033,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2056,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2079,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2102,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2125,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2148,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2171,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2194,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2217,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,7 +2243,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2243,7 +2252,7 @@
         <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,16 +2266,16 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,16 +2289,16 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2309,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2332,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2355,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2378,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,22 +2401,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2415,19 +2424,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,22 +2447,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2461,22 +2470,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2484,19 +2493,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,22 +2516,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2530,22 +2539,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2553,19 +2562,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2585,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2608,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2631,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2654,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2677,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2700,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2723,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,16 +2749,16 @@
         <v>81</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,16 +2772,16 @@
         <v>81</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,16 +2795,16 @@
         <v>81</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,16 +2818,16 @@
         <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2838,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2861,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2884,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2907,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2930,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2953,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2976,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2999,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3022,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3045,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3068,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3091,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3114,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3137,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3160,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3183,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3206,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3229,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3243,24 +3252,139 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -239,7 +239,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -239,7 +239,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -475,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1780,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1827,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,22 +1965,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -1964,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,22 +2011,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2010,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2033,22 +2057,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2056,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,22 +2103,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2102,22 +2126,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2125,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2264,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2470,22 +2494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2493,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,22 +2540,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>21</v>
@@ -2539,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>21</v>
@@ -2562,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2609,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2654,22 +2678,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2677,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,22 +2724,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2723,22 +2747,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2746,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2839,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2976,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3046,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3069,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3092,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3115,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3138,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3161,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3207,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3253,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3276,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3299,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3322,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3345,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3368,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3367,24 +3391,300 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -173,13 +179,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -798,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -890,7 +896,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -922,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>32</v>
@@ -945,7 +951,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -968,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>32</v>
@@ -1014,7 +1020,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1212,7 +1218,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1275,42 +1281,42 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1327,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1350,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1373,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1396,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1419,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1436,22 +1442,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -1505,22 +1511,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1528,22 +1534,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1551,22 +1557,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>21</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,22 +2063,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,22 +2109,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2126,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>15</v>
@@ -2149,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,22 +2178,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2195,22 +2201,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2218,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2431,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,16 +2526,16 @@
         <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,16 +2549,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,16 +2572,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2615,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2638,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2661,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,22 +2684,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -2701,19 +2707,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,22 +2730,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -2747,22 +2753,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>21</v>
@@ -2770,22 +2776,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2822,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -2839,22 +2845,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2862,19 +2868,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2891,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2914,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2960,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2983,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3052,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3098,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3121,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,16 +3147,16 @@
         <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,16 +3170,16 @@
         <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,16 +3193,16 @@
         <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,16 +3216,16 @@
         <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3236,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3259,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3282,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3305,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3328,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3351,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3368,19 +3374,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3397,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3420,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3443,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3466,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3489,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3512,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3529,19 +3535,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3552,19 +3558,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3581,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3598,19 +3604,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3627,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3644,19 +3650,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3667,24 +3673,116 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1241,7 +1247,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1304,42 +1310,42 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1356,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,22 +1494,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1511,22 +1517,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1534,22 +1540,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
@@ -1580,22 +1586,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,22 +2138,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
@@ -2201,22 +2207,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2224,22 +2230,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -2247,22 +2253,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,16 +2601,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,16 +2624,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,7 +2647,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -2650,7 +2656,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2713,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2736,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2776,22 +2782,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>21</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,22 +2828,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>21</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,22 +2897,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>21</v>
@@ -2914,22 +2920,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3173,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,16 +3245,16 @@
         <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,16 +3268,16 @@
         <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,16 +3291,16 @@
         <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3308,16 +3314,16 @@
         <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3334,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3357,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3380,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3403,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3426,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3443,19 +3449,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3466,19 +3472,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3489,19 +3495,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3512,19 +3518,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3535,19 +3541,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3558,19 +3564,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3581,19 +3587,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3604,19 +3610,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3627,19 +3633,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3650,19 +3656,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3673,19 +3679,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3696,19 +3702,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3719,19 +3725,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3742,19 +3748,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3765,24 +3771,116 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1270,7 +1276,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1333,42 +1339,42 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1454,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1517,22 +1523,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1540,22 +1546,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1563,22 +1569,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>21</v>
@@ -1586,19 +1592,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,22 +2190,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
@@ -2253,22 +2259,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -2276,22 +2282,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -2299,22 +2305,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,16 +2676,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,16 +2699,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,7 +2722,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
@@ -2725,7 +2731,7 @@
         <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,22 +2857,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>21</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,22 +2903,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>21</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,22 +2972,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>21</v>
@@ -2989,22 +2995,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3133,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3156,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3173,19 +3179,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3196,19 +3202,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3219,19 +3225,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3248,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3271,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3288,19 +3294,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3311,19 +3317,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,16 +3343,16 @@
         <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,16 +3366,16 @@
         <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,16 +3389,16 @@
         <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,16 +3412,16 @@
         <v>95</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3426,19 +3432,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,19 +3455,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3472,19 +3478,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3495,19 +3501,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3518,19 +3524,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3541,19 +3547,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3564,19 +3570,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3593,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3610,19 +3616,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3633,19 +3639,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3656,19 +3662,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3679,19 +3685,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3702,19 +3708,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3725,19 +3731,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3748,19 +3754,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3771,19 +3777,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3794,19 +3800,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3817,19 +3823,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3840,19 +3846,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3863,24 +3869,116 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+    <t>Copia integrale dell'atto di nascita intestatario</t>
   </si>
   <si>
     <t>SI</t>
@@ -524,7 +524,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3691,7 +3697,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>99</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3731,16 +3737,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>126</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>127</v>
@@ -3763,7 +3769,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>128</v>
@@ -3777,19 +3783,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3800,16 +3806,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>131</v>
@@ -3823,16 +3829,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>133</v>
@@ -3846,7 +3852,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>134</v>
@@ -3855,7 +3861,7 @@
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>135</v>
@@ -3869,19 +3875,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3892,16 +3898,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>141</v>
@@ -3915,7 +3921,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -3924,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>143</v>
@@ -3938,19 +3944,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3961,16 +3967,16 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>148</v>
@@ -3979,6 +3985,29 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3438,19 +3444,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3461,16 +3467,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>102</v>
@@ -3484,7 +3490,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>103</v>
@@ -3493,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>104</v>
@@ -3507,7 +3513,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>105</v>
@@ -3516,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>106</v>
@@ -3530,7 +3536,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>107</v>
@@ -3539,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>108</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>109</v>
@@ -3562,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>110</v>
@@ -3576,7 +3582,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>111</v>
@@ -3585,10 +3591,10 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3605,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>114</v>
@@ -3631,10 +3637,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3651,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>117</v>
@@ -3677,7 +3683,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>118</v>
@@ -3691,7 +3697,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>119</v>
@@ -3700,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>120</v>
@@ -3714,16 +3720,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>122</v>
@@ -3737,19 +3743,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3760,16 +3766,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>128</v>
@@ -3783,7 +3789,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>129</v>
@@ -3792,7 +3798,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>130</v>
@@ -3806,19 +3812,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3829,16 +3835,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>133</v>
@@ -3852,16 +3858,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>135</v>
@@ -3875,7 +3881,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>136</v>
@@ -3884,7 +3890,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>137</v>
@@ -3898,19 +3904,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3921,16 +3927,16 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>143</v>
@@ -3944,7 +3950,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>144</v>
@@ -3953,7 +3959,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>145</v>
@@ -3967,19 +3973,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3990,16 +3996,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>150</v>
@@ -4008,6 +4014,29 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,12 +303,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -529,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3444,19 +3438,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3467,16 +3461,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>102</v>
@@ -3490,7 +3484,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>103</v>
@@ -3499,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>104</v>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>105</v>
@@ -3522,7 +3516,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>106</v>
@@ -3536,7 +3530,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>107</v>
@@ -3545,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>108</v>
@@ -3559,7 +3553,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>109</v>
@@ -3568,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>110</v>
@@ -3582,7 +3576,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>111</v>
@@ -3591,10 +3585,10 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3599,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3628,7 +3622,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>114</v>
@@ -3637,10 +3631,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3645,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3674,7 +3668,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>117</v>
@@ -3683,7 +3677,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>118</v>
@@ -3697,7 +3691,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>119</v>
@@ -3706,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>120</v>
@@ -3720,16 +3714,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>122</v>
@@ -3743,19 +3737,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3766,16 +3760,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>128</v>
@@ -3789,7 +3783,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>129</v>
@@ -3798,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>130</v>
@@ -3812,19 +3806,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3835,16 +3829,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>133</v>
@@ -3858,16 +3852,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>135</v>
@@ -3881,7 +3875,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>136</v>
@@ -3890,7 +3884,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>137</v>
@@ -3904,19 +3898,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3927,16 +3921,16 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>143</v>
@@ -3950,7 +3944,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>144</v>
@@ -3959,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>145</v>
@@ -3973,19 +3967,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3996,16 +3990,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>150</v>
@@ -4014,29 +4008,6 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -874,7 +886,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -897,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -943,7 +955,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -966,7 +978,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -975,7 +987,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>32</v>
@@ -1044,7 +1056,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>32</v>
@@ -1067,7 +1079,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>32</v>
@@ -1090,7 +1102,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>32</v>
@@ -1311,7 +1323,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1334,7 +1346,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1374,65 +1386,65 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1455,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1478,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1501,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1524,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1547,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1558,22 +1570,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1581,19 +1593,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1604,22 +1616,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -1627,22 +1639,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1650,22 +1662,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1673,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,22 +1708,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>21</v>
@@ -1719,22 +1731,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>21</v>
@@ -1742,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1777,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2007,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,22 +2260,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>21</v>
@@ -2271,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2294,22 +2306,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>21</v>
@@ -2317,22 +2329,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -2340,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2386,22 +2398,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>21</v>
@@ -2409,19 +2421,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2432,22 +2444,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -2455,22 +2467,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2478,19 +2490,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2513,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2536,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2559,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2628,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2651,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2674,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2766,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2938,22 +2950,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>21</v>
@@ -2961,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2984,22 +2996,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>21</v>
@@ -3007,22 +3019,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>21</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3122,22 +3134,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>21</v>
@@ -3145,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,22 +3180,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>21</v>
@@ -3191,22 +3203,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>21</v>
@@ -3214,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3318,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3387,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3410,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3433,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3456,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,16 +3482,16 @@
         <v>99</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3493,16 +3505,16 @@
         <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3516,16 +3528,16 @@
         <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3539,16 +3551,16 @@
         <v>99</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3562,16 +3574,16 @@
         <v>99</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,16 +3597,16 @@
         <v>99</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,16 +3620,16 @@
         <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3631,16 +3643,16 @@
         <v>99</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3663,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3686,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3709,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3732,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3755,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3778,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3801,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3812,19 +3824,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3835,19 +3847,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3870,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3893,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3916,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3939,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3962,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3985,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4008,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4019,24 +4031,208 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="B159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>21</v>
       </c>
     </row>
